--- a/profiles/summary.xlsx
+++ b/profiles/summary.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\PennHW\CIS565\Project3-CUDA-Path-Tracer\profiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7573ACD-0F40-49DB-9212-781E367E55BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PartitionSorting" sheetId="1" r:id="rId1"/>
+    <sheet name="Cache1stBounce" sheetId="2" r:id="rId2"/>
+    <sheet name="BVH" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +26,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>Partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition&amp;Sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partition&amp;Cache1stBounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene3(Close)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunny2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BVH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BVH pre-sorted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball135280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon871306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +146,3534 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Analysis on Partition and Sorting by Comparison of FPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartitionSorting!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(PartitionSorting!$A$1,PartitionSorting!$A$8,PartitionSorting!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scene1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scene2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scene3(Close)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(PartitionSorting!$B$2,PartitionSorting!$B$9,PartitionSorting!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.4231599999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7730899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2679800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65EF-42BC-AAA1-CB92159F0FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartitionSorting!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(PartitionSorting!$A$1,PartitionSorting!$A$8,PartitionSorting!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scene1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scene2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scene3(Close)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(PartitionSorting!$B$3,PartitionSorting!$B$10,PartitionSorting!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0565499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.63924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65EF-42BC-AAA1-CB92159F0FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PartitionSorting!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partition&amp;Sorting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(PartitionSorting!$A$1,PartitionSorting!$A$8,PartitionSorting!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scene1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scene2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scene3(Close)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(PartitionSorting!$B$4,PartitionSorting!$B$11,PartitionSorting!$B$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.7379499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5824099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2722100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-65EF-42BC-AAA1-CB92159F0FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="619418832"/>
+        <c:axId val="619420080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619418832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>scene</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92103119011963996"/>
+              <c:y val="0.92527860246977323"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619420080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619420080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fps/hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9316458142118745E-2"/>
+              <c:y val="9.1273324441002252E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619418832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Analysis on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Cache 1st Bounce</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> by Comparison of FPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cache1stBounce!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache1stBounce!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scene3(Close)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache1stBounce!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6449499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C2-4115-973F-E4398B0E64D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cache1stBounce!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Partition&amp;Cache1stBounce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cache1stBounce!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scene3(Close)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cache1stBounce!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6542399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-16C2-4115-973F-E4398B0E64D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="619418832"/>
+        <c:axId val="619420080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619418832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>scene</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92103119011963996"/>
+              <c:y val="0.92527860246977323"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619420080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619420080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fps/hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9316458142118745E-2"/>
+              <c:y val="9.1273324441002252E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619418832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Analysis on Spatial Hierarchical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Structure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> by Comparison of FPS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BVH!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(BVH!$A$1,BVH!$A$8,BVH!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bunny2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ball135280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dragon871306</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(BVH!$B$2,BVH!$B$9,BVH!$B$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.8924500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14191500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0220800000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1ED-4CC5-B63A-37C2672B9B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BVH!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(BVH!$A$1,BVH!$A$8,BVH!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bunny2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ball135280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dragon871306</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(BVH!$B$3,BVH!$B$10,BVH!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.758699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.157599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1ED-4CC5-B63A-37C2672B9B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BVH!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BVH pre-sorted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(BVH!$A$1,BVH!$A$8,BVH!$A$15)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bunny2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ball135280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dragon871306</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(BVH!$B$4,BVH!$B$11,BVH!$B$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.906399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.284700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.105599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1ED-4CC5-B63A-37C2672B9B9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="619418832"/>
+        <c:axId val="619420080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619418832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>scene</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.92103119011963996"/>
+              <c:y val="0.92527860246977323"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619420080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619420080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fps/hz</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.9316458142118745E-2"/>
+              <c:y val="9.1273324441002252E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619418832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369AD73B-D488-4E2C-9C99-E2BCD2D2275C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E7CE1-A37A-4CD8-B1DA-4A4C6AEB64E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF74567-885A-4CD7-BA64-EE6D1C3F7BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3938,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.4231599999999993</v>
+      </c>
+      <c r="C2" s="1">
+        <v>106.372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.0565499999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>124.271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.7379499999999997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>174.47399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.7730899999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>362.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.9413900000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>341.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.5824099999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>388.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.2679800000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>789.15700000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.63924</v>
+      </c>
+      <c r="C17" s="1">
+        <v>610.31700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.2722100000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>786.46199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F5711C-6BA6-4026-AB33-D799E8679A50}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.6449499999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>608.30200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.6542399999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>604.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9190A648-7FE2-4642-B3CF-BDAD2158086E}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.8924500000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>112.471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44.758699999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22.350100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43.906399999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22.808700000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.14191500000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7046.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30.157599999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33.207500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>29.284700000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>34.170900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.0220800000000001E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>49454.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>46.903100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21.105599999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>47.420200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>